--- a/03_outputs/autoMLST2_subproject/Results from AutoMLST on Bangor samples.xlsx
+++ b/03_outputs/autoMLST2_subproject/Results from AutoMLST on Bangor samples.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3a0aea3186ce866d/University/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tobyn\source\undergrad_dissertation\03_outputs\autoMLST2_subproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAA2FAA3-6808-4ACC-BE03-B79E2F0C3537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA66CBD-B880-461D-8A76-82A66FB9DE43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{6E015C41-181D-4DF3-8DCA-944C2BF12DB8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{6E015C41-181D-4DF3-8DCA-944C2BF12DB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="199">
-  <si>
-    <t>Search:</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="198">
   <si>
     <t>Query organism</t>
   </si>
@@ -707,7 +704,65 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FFDDDDDD"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -718,6 +773,24 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3CE1F3AD-0047-476A-80B8-A09EEC138DD0}" name="Table1" displayName="Table1" ref="B5:J105" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="11">
+  <autoFilter ref="B5:J105" xr:uid="{3CE1F3AD-0047-476A-80B8-A09EEC138DD0}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{258E51EF-DFFB-4CE0-9E59-9BCDAA63396E}" name="Query organism" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{152FF319-0BB2-4B45-8BE1-69A53EF7E11E}" name="Reference assembly ID" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{1A9B9772-25D9-4A06-8D00-A0E54CB52866}" name="Reference name" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{8843AEC6-8BEA-42D7-B8E9-91C821BE7E80}" name="Mash distance" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{5EA72D71-C7E5-480C-8BEC-F1565D785F80}" name="estimated ANI" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{3F32C5EB-7D8E-4208-B808-4F7587B4BBBD}" name="P-value" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{8ED3903B-3029-4268-B7E3-E3FB31731497}" name="Genus" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{997059BC-9DCC-4EE5-AF89-D31799D2F59F}" name="Order" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{F5F46DA7-3302-4587-BF5E-D02D84FBA241}" name="Type strain" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1039,63 +1112,64 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D837341-FD5C-45A1-BB66-867B93975AD0}">
   <dimension ref="B4:J105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.35546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="44.0703125" customWidth="1"/>
-    <col min="9" max="9" width="55.85546875" customWidth="1"/>
+    <col min="2" max="2" width="25.4140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+    <col min="8" max="8" width="44.08203125" customWidth="1"/>
+    <col min="9" max="9" width="55.83203125" customWidth="1"/>
+    <col min="10" max="10" width="12.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" ht="28.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="2:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="2" t="s">
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="E6" s="3">
         <v>2.8899999999999999E-2</v>
@@ -1107,24 +1181,24 @@
         <v>0</v>
       </c>
       <c r="H6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="E7" s="3">
         <v>3.0599999999999999E-2</v>
@@ -1136,24 +1210,24 @@
         <v>0</v>
       </c>
       <c r="H7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="J7" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="E8" s="3">
         <v>3.1600000000000003E-2</v>
@@ -1165,24 +1239,24 @@
         <v>0</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="E9" s="3">
         <v>3.85E-2</v>
@@ -1194,24 +1268,24 @@
         <v>0</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J9" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="E10" s="3">
         <v>5.0799999999999998E-2</v>
@@ -1223,24 +1297,24 @@
         <v>0</v>
       </c>
       <c r="H10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="J10" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="E11" s="3">
         <v>5.3199999999999997E-2</v>
@@ -1252,24 +1326,24 @@
         <v>0</v>
       </c>
       <c r="H11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="J11" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="E12" s="3">
         <v>6.4600000000000005E-2</v>
@@ -1281,24 +1355,24 @@
         <v>0</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J12" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="E13" s="3">
         <v>6.9099999999999995E-2</v>
@@ -1310,24 +1384,24 @@
         <v>0</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J13" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="E14" s="3">
         <v>7.1400000000000005E-2</v>
@@ -1339,24 +1413,24 @@
         <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="J14" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="E15" s="3">
         <v>8.0199999999999994E-2</v>
@@ -1368,24 +1442,24 @@
         <v>0</v>
       </c>
       <c r="H15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="J15" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="E16" s="3">
         <v>8.0699999999999994E-2</v>
@@ -1397,24 +1471,24 @@
         <v>0</v>
       </c>
       <c r="H16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J16" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B17" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="E17" s="3">
         <v>8.1000000000000003E-2</v>
@@ -1426,24 +1500,24 @@
         <v>0</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J17" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="E18" s="3">
         <v>0.09</v>
@@ -1455,24 +1529,24 @@
         <v>0</v>
       </c>
       <c r="H18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="J18" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J18" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B19" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="C19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="E19" s="3">
         <v>9.1399999999999995E-2</v>
@@ -1484,24 +1558,24 @@
         <v>0</v>
       </c>
       <c r="H19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="J19" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="E20" s="3">
         <v>9.4299999999999995E-2</v>
@@ -1513,24 +1587,24 @@
         <v>0</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J20" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="E21" s="3">
         <v>9.5699999999999993E-2</v>
@@ -1542,24 +1616,24 @@
         <v>0</v>
       </c>
       <c r="H21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="J21" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="E22" s="3">
         <v>9.6600000000000005E-2</v>
@@ -1571,24 +1645,24 @@
         <v>0</v>
       </c>
       <c r="H22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="J22" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="E23" s="3">
         <v>9.9900000000000003E-2</v>
@@ -1600,24 +1674,24 @@
         <v>0</v>
       </c>
       <c r="H23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="J23" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B24" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J23" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B24" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="C24" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="E24" s="3">
         <v>0.1007</v>
@@ -1629,24 +1703,24 @@
         <v>0</v>
       </c>
       <c r="H24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="J24" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="E25" s="3">
         <v>0.10199999999999999</v>
@@ -1658,24 +1732,24 @@
         <v>0</v>
       </c>
       <c r="H25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I25" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="J25" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="E26" s="3">
         <v>0.1045</v>
@@ -1687,24 +1761,24 @@
         <v>0</v>
       </c>
       <c r="H26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="J26" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="E27" s="3">
         <v>0.1067</v>
@@ -1716,24 +1790,24 @@
         <v>0</v>
       </c>
       <c r="H27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="J27" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B28" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J27" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B28" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="C28" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="E28" s="3">
         <v>0.1095</v>
@@ -1745,24 +1819,24 @@
         <v>0</v>
       </c>
       <c r="H28" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I28" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="J28" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B29" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="J28" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B29" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="E29" s="3">
         <v>0.1095</v>
@@ -1774,24 +1848,24 @@
         <v>0</v>
       </c>
       <c r="H29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I29" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="J29" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C30" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="E30" s="3">
         <v>0.11</v>
@@ -1803,24 +1877,24 @@
         <v>0</v>
       </c>
       <c r="H30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="J30" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C31" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="E31" s="3">
         <v>0.1105</v>
@@ -1832,24 +1906,24 @@
         <v>0</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J31" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B32" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C32" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="E32" s="3">
         <v>0.1113</v>
@@ -1861,24 +1935,24 @@
         <v>0</v>
       </c>
       <c r="H32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="J32" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C33" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="E33" s="3">
         <v>0.1138</v>
@@ -1890,24 +1964,24 @@
         <v>0</v>
       </c>
       <c r="H33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I33" s="3" t="s">
+      <c r="J33" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B34" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J33" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B34" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="C34" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="E34" s="3">
         <v>0.1148</v>
@@ -1919,24 +1993,24 @@
         <v>0</v>
       </c>
       <c r="H34" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I34" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="J34" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C35" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="E35" s="3">
         <v>0.1148</v>
@@ -1948,24 +2022,24 @@
         <v>0</v>
       </c>
       <c r="H35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I35" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="J35" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B36" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C36" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="E36" s="3">
         <v>0.1158</v>
@@ -1977,24 +2051,24 @@
         <v>0</v>
       </c>
       <c r="H36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I36" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I36" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="J36" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B37" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C37" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="E37" s="3">
         <v>0.1162</v>
@@ -2006,24 +2080,24 @@
         <v>0</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J37" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B38" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C38" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="E38" s="3">
         <v>0.1174</v>
@@ -2035,24 +2109,24 @@
         <v>0</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J38" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B39" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C39" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="E39" s="3">
         <v>0.1174</v>
@@ -2064,24 +2138,24 @@
         <v>0</v>
       </c>
       <c r="H39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I39" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="J39" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B40" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C40" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="E40" s="3">
         <v>0.1176</v>
@@ -2093,24 +2167,24 @@
         <v>0</v>
       </c>
       <c r="H40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I40" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I40" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="J40" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C41" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="E41" s="3">
         <v>0.1186</v>
@@ -2122,24 +2196,24 @@
         <v>0</v>
       </c>
       <c r="H41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I41" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="J41" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B42" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C42" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="E42" s="3">
         <v>0.1188</v>
@@ -2151,24 +2225,24 @@
         <v>0</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J42" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B43" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C43" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="E43" s="3">
         <v>0.11990000000000001</v>
@@ -2180,24 +2254,24 @@
         <v>0</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J43" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C44" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="E44" s="3">
         <v>0.1215</v>
@@ -2209,24 +2283,24 @@
         <v>0</v>
       </c>
       <c r="H44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I44" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="J44" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B45" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C45" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="E45" s="3">
         <v>0.12189999999999999</v>
@@ -2238,24 +2312,24 @@
         <v>0</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J45" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B46" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C46" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="E46" s="3">
         <v>0.12189999999999999</v>
@@ -2267,24 +2341,24 @@
         <v>0</v>
       </c>
       <c r="H46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I46" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="J46" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C47" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="E47" s="3">
         <v>0.1221</v>
@@ -2296,24 +2370,24 @@
         <v>0</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J47" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B48" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C48" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="E48" s="3">
         <v>0.12280000000000001</v>
@@ -2325,24 +2399,24 @@
         <v>0</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J48" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B49" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C49" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="E49" s="3">
         <v>0.12429999999999999</v>
@@ -2354,24 +2428,24 @@
         <v>0</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J49" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B50" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C50" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>103</v>
       </c>
       <c r="E50" s="3">
         <v>0.12429999999999999</v>
@@ -2383,24 +2457,24 @@
         <v>0</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J50" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B51" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C51" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="E51" s="3">
         <v>0.12429999999999999</v>
@@ -2412,24 +2486,24 @@
         <v>0</v>
       </c>
       <c r="H51" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I51" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="J51" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B52" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C52" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D52" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="E52" s="3">
         <v>0.12470000000000001</v>
@@ -2441,24 +2515,24 @@
         <v>0</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J52" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B53" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C53" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D53" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="E53" s="3">
         <v>0.125</v>
@@ -2470,24 +2544,24 @@
         <v>0</v>
       </c>
       <c r="H53" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I53" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I53" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="J53" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B54" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C54" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="E54" s="3">
         <v>0.1255</v>
@@ -2499,24 +2573,24 @@
         <v>0</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J54" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B55" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C55" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="E55" s="3">
         <v>0.126</v>
@@ -2528,24 +2602,24 @@
         <v>0</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J55" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B56" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C56" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="E56" s="3">
         <v>0.12620000000000001</v>
@@ -2557,24 +2631,24 @@
         <v>0</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J56" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B57" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C57" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D57" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="E57" s="3">
         <v>0.12620000000000001</v>
@@ -2586,24 +2660,24 @@
         <v>0</v>
       </c>
       <c r="H57" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I57" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="J57" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B58" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C58" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D58" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="E58" s="3">
         <v>0.12620000000000001</v>
@@ -2615,24 +2689,24 @@
         <v>0</v>
       </c>
       <c r="H58" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I58" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="J58" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B59" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="E59" s="3">
         <v>0.1265</v>
@@ -2644,24 +2718,24 @@
         <v>0</v>
       </c>
       <c r="H59" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I59" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="J59" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B60" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C60" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D60" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="E60" s="3">
         <v>0.127</v>
@@ -2673,24 +2747,24 @@
         <v>0</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J60" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B61" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C61" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D61" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="E61" s="3">
         <v>0.12770000000000001</v>
@@ -2702,24 +2776,24 @@
         <v>0</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J61" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B62" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C62" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D62" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>117</v>
       </c>
       <c r="E62" s="3">
         <v>0.1283</v>
@@ -2731,24 +2805,24 @@
         <v>0</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J62" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B63" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C63" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D63" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="E63" s="3">
         <v>0.1283</v>
@@ -2760,24 +2834,24 @@
         <v>0</v>
       </c>
       <c r="H63" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I63" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I63" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="J63" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C64" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D64" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="E64" s="3">
         <v>0.12909999999999999</v>
@@ -2789,24 +2863,24 @@
         <v>0</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J64" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B65" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C65" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D65" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="E65" s="3">
         <v>0.12909999999999999</v>
@@ -2818,24 +2892,24 @@
         <v>0</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J65" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B66" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C66" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D66" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>123</v>
       </c>
       <c r="E66" s="3">
         <v>0.13039999999999999</v>
@@ -2847,24 +2921,24 @@
         <v>0</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J66" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B67" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C67" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D67" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>125</v>
       </c>
       <c r="E67" s="3">
         <v>0.1321</v>
@@ -2876,24 +2950,24 @@
         <v>0</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J67" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B68" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C68" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D68" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>127</v>
       </c>
       <c r="E68" s="3">
         <v>0.1321</v>
@@ -2905,24 +2979,24 @@
         <v>0</v>
       </c>
       <c r="H68" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I68" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I68" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="J68" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B69" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C69" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D69" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="E69" s="3">
         <v>0.13239999999999999</v>
@@ -2934,24 +3008,24 @@
         <v>0</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J69" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B70" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C70" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D70" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="E70" s="3">
         <v>0.13420000000000001</v>
@@ -2963,24 +3037,24 @@
         <v>0</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J70" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B71" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C71" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D71" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>133</v>
       </c>
       <c r="E71" s="3">
         <v>0.1351</v>
@@ -2992,24 +3066,24 @@
         <v>0</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J71" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B72" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C72" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D72" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>135</v>
       </c>
       <c r="E72" s="3">
         <v>0.13569999999999999</v>
@@ -3021,24 +3095,24 @@
         <v>0</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J72" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B73" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C73" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D73" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>137</v>
       </c>
       <c r="E73" s="3">
         <v>0.1363</v>
@@ -3050,24 +3124,24 @@
         <v>0</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J73" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B74" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C74" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D74" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>139</v>
       </c>
       <c r="E74" s="3">
         <v>0.1366</v>
@@ -3079,24 +3153,24 @@
         <v>0</v>
       </c>
       <c r="H74" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I74" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I74" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="J74" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B75" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C75" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D75" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>141</v>
       </c>
       <c r="E75" s="3">
         <v>0.13689999999999999</v>
@@ -3108,24 +3182,24 @@
         <v>0</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J75" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B76" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C76" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D76" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>143</v>
       </c>
       <c r="E76" s="3">
         <v>0.13789999999999999</v>
@@ -3137,24 +3211,24 @@
         <v>0</v>
       </c>
       <c r="H76" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I76" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="J76" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B77" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C77" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D77" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>145</v>
       </c>
       <c r="E77" s="3">
         <v>0.13819999999999999</v>
@@ -3166,24 +3240,24 @@
         <v>0</v>
       </c>
       <c r="H77" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I77" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I77" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="J77" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B78" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C78" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D78" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>147</v>
       </c>
       <c r="E78" s="3">
         <v>0.1386</v>
@@ -3195,24 +3269,24 @@
         <v>0</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J78" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B79" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C79" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D79" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>149</v>
       </c>
       <c r="E79" s="3">
         <v>0.1386</v>
@@ -3224,24 +3298,24 @@
         <v>0</v>
       </c>
       <c r="H79" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I79" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I79" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="J79" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B80" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C80" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D80" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>151</v>
       </c>
       <c r="E80" s="3">
         <v>0.13919999999999999</v>
@@ -3253,24 +3327,24 @@
         <v>0</v>
       </c>
       <c r="H80" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I80" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I80" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="J80" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B81" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C81" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D81" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="E81" s="3">
         <v>0.1396</v>
@@ -3282,24 +3356,24 @@
         <v>0</v>
       </c>
       <c r="H81" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I81" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="J81" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B82" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C82" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D82" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>153</v>
       </c>
       <c r="E82" s="3">
         <v>0.14030000000000001</v>
@@ -3311,24 +3385,24 @@
         <v>0</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J82" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B83" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C83" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D83" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="E83" s="3">
         <v>0.1406</v>
@@ -3340,24 +3414,24 @@
         <v>0</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J83" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B84" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C84" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D84" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>145</v>
       </c>
       <c r="E84" s="3">
         <v>0.1406</v>
@@ -3369,24 +3443,24 @@
         <v>0</v>
       </c>
       <c r="H84" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I84" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I84" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="J84" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B85" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C85" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D85" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>157</v>
       </c>
       <c r="E85" s="3">
         <v>0.1409</v>
@@ -3398,24 +3472,24 @@
         <v>0</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J85" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B86" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C86" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D86" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="E86" s="3">
         <v>0.14130000000000001</v>
@@ -3427,24 +3501,24 @@
         <v>0</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J86" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B87" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C87" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D87" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>161</v>
       </c>
       <c r="E87" s="3">
         <v>0.1424</v>
@@ -3456,24 +3530,24 @@
         <v>0</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J87" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B88" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C88" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D88" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>163</v>
       </c>
       <c r="E88" s="3">
         <v>0.14349999999999999</v>
@@ -3485,24 +3559,24 @@
         <v>0</v>
       </c>
       <c r="H88" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I88" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="I88" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="J88" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B89" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C89" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="D89" s="3" t="s">
         <v>165</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>166</v>
       </c>
       <c r="E89" s="3">
         <v>0.14349999999999999</v>
@@ -3514,24 +3588,24 @@
         <v>0</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J89" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B90" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C90" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D90" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>168</v>
       </c>
       <c r="E90" s="3">
         <v>0.14499999999999999</v>
@@ -3543,24 +3617,24 @@
         <v>0</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J90" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B91" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C91" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D91" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>170</v>
       </c>
       <c r="E91" s="3">
         <v>0.14610000000000001</v>
@@ -3572,24 +3646,24 @@
         <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J91" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B92" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C92" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D92" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>172</v>
       </c>
       <c r="E92" s="3">
         <v>0.14610000000000001</v>
@@ -3601,24 +3675,24 @@
         <v>0</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J92" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B93" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C93" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D93" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>174</v>
       </c>
       <c r="E93" s="3">
         <v>0.14649999999999999</v>
@@ -3630,24 +3704,24 @@
         <v>0</v>
       </c>
       <c r="H93" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I93" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I93" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="J93" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B94" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C94" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D94" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>176</v>
       </c>
       <c r="E94" s="3">
         <v>0.14729999999999999</v>
@@ -3659,24 +3733,24 @@
         <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J94" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B95" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C95" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D95" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>178</v>
       </c>
       <c r="E95" s="3">
         <v>0.14810000000000001</v>
@@ -3688,24 +3762,24 @@
         <v>0</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J95" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B96" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C96" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D96" s="3" t="s">
         <v>179</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>180</v>
       </c>
       <c r="E96" s="3">
         <v>0.14810000000000001</v>
@@ -3717,24 +3791,24 @@
         <v>0</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J96" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B97" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C97" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D97" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>182</v>
       </c>
       <c r="E97" s="3">
         <v>0.14810000000000001</v>
@@ -3746,24 +3820,24 @@
         <v>0</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J97" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B98" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C98" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D98" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>184</v>
       </c>
       <c r="E98" s="3">
         <v>0.14810000000000001</v>
@@ -3775,24 +3849,24 @@
         <v>0</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J98" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B99" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C99" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D99" s="3" t="s">
         <v>185</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>186</v>
       </c>
       <c r="E99" s="3">
         <v>0.14849999999999999</v>
@@ -3804,24 +3878,24 @@
         <v>0</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J99" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B100" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C100" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D100" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>188</v>
       </c>
       <c r="E100" s="3">
         <v>0.14849999999999999</v>
@@ -3833,24 +3907,24 @@
         <v>0</v>
       </c>
       <c r="H100" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I100" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="J100" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B101" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C101" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D101" s="3" t="s">
         <v>189</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>190</v>
       </c>
       <c r="E101" s="3">
         <v>0.1489</v>
@@ -3862,24 +3936,24 @@
         <v>0</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J101" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B102" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C102" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D102" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>192</v>
       </c>
       <c r="E102" s="3">
         <v>0.1489</v>
@@ -3891,24 +3965,24 @@
         <v>0</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J102" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B103" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C103" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D103" s="3" t="s">
         <v>193</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>194</v>
       </c>
       <c r="E103" s="3">
         <v>0.14940000000000001</v>
@@ -3920,24 +3994,24 @@
         <v>0</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J103" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B104" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C104" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D104" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>196</v>
       </c>
       <c r="E104" s="3">
         <v>0.14979999999999999</v>
@@ -3949,24 +4023,24 @@
         <v>0</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J104" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B105" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C105" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D105" s="3" t="s">
         <v>197</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>198</v>
       </c>
       <c r="E105" s="3">
         <v>0.1515</v>
@@ -3978,10 +4052,10 @@
         <v>0</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J105" s="3" t="b">
         <v>0</v>
@@ -3989,5 +4063,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>